--- a/mapping_tools/modbus_devices_dbnpoller.xlsx
+++ b/mapping_tools/modbus_devices_dbnpoller.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbaldwin/Work/2020/DS008-2020 (B4E-BUILDING)/energy_poller/mapping_tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbaldwin/Work/2020/DS008-2020 (B4E-BUILDING)/rpiB4e/energy_poller/mapping_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFDFBA-F4AD-8543-82E6-E7D64165CCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99A7A7-26C4-E64E-A775-C1972F19CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" activeTab="8" xr2:uid="{5DD41FDB-13DA-47A3-8E54-3B553FBF34ED}"/>
   </bookViews>
@@ -14135,7 +14135,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14261,11 +14261,11 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" ref="B8:B52" si="0">IF(ISBLANK(A8),"",IF(AND($A8&gt;=0,($N8+$O8)&gt;$A8),"&lt;bad offset&gt;",$P8))</f>
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>80</v>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="P8" s="10">
         <f>IF($A8&gt;=0,$A8,$N8+$O8)</f>
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="N9" s="10">
         <f>IF(ISNUMBER($N8),$P8,0)</f>
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="O9" s="10">
         <f t="shared" ref="O9:O52" ca="1" si="1">IF(ISNUMBER($H8),$H8,0)</f>
@@ -14359,7 +14359,7 @@
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" ref="G9:G52" ca="1" si="2">IF(ISERROR(L10),"",IFERROR(MAX(INDIRECT($K10&amp;"!$D:$D")),""))</f>
+        <f t="shared" ref="G10:G52" ca="1" si="2">IF(ISERROR(L10),"",IFERROR(MAX(INDIRECT($K10&amp;"!$D:$D")),""))</f>
         <v/>
       </c>
       <c r="H10" s="4" t="str">

--- a/mapping_tools/modbus_devices_dbnpoller.xlsx
+++ b/mapping_tools/modbus_devices_dbnpoller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbaldwin/Work/2020/DS008-2020 (B4E-BUILDING)/rpiB4e/energy_poller/mapping_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE99A7A7-26C4-E64E-A775-C1972F19CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75334936-45A4-7343-93D7-D879A6F11DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" activeTab="8" xr2:uid="{5DD41FDB-13DA-47A3-8E54-3B553FBF34ED}"/>
   </bookViews>
@@ -14135,7 +14135,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14261,11 +14261,11 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" ref="B8:B52" si="0">IF(ISBLANK(A8),"",IF(AND($A8&gt;=0,($N8+$O8)&gt;$A8),"&lt;bad offset&gt;",$P8))</f>
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>80</v>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="P8" s="10">
         <f>IF($A8&gt;=0,$A8,$N8+$O8)</f>
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="N9" s="10">
         <f>IF(ISNUMBER($N8),$P8,0)</f>
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="O9" s="10">
         <f t="shared" ref="O9:O52" ca="1" si="1">IF(ISNUMBER($H8),$H8,0)</f>

--- a/mapping_tools/modbus_devices_dbnpoller.xlsx
+++ b/mapping_tools/modbus_devices_dbnpoller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbaldwin/Work/2020/DS008-2020 (B4E-BUILDING)/rpiB4e/energy_poller/mapping_tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbaldwin/Work/2020/DS008-2020 (B4E-BUILDING)/github/energy_poller/mapping_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75334936-45A4-7343-93D7-D879A6F11DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB4EE6-6DB2-9B4F-85CF-093EFB14E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" activeTab="8" xr2:uid="{5DD41FDB-13DA-47A3-8E54-3B553FBF34ED}"/>
+    <workbookView xWindow="13560" yWindow="1320" windowWidth="28800" windowHeight="17460" activeTab="4" xr2:uid="{5DD41FDB-13DA-47A3-8E54-3B553FBF34ED}"/>
   </bookViews>
   <sheets>
     <sheet name="!!__UserGuide" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="OR_WE_514_2" sheetId="7" r:id="rId7"/>
     <sheet name="EEM_MA370" sheetId="8" r:id="rId8"/>
     <sheet name="SOLIS_4G_3P" sheetId="9" r:id="rId9"/>
+    <sheet name="JANITZA_B23" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>Modbus Device Table Definition</t>
   </si>
@@ -305,6 +306,12 @@
   </si>
   <si>
     <t>SOLIS_4G_3P_part1</t>
+  </si>
+  <si>
+    <t>JANITZA_B23</t>
+  </si>
+  <si>
+    <t>JANITZA_B23_part1</t>
   </si>
 </sst>
 </file>
@@ -1033,6 +1040,2057 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9000FF58-FD0D-8E42-B8E5-2EAB2FF3BA67}">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="11"/>
+    <col min="11" max="11" width="40" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="11"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>19006</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" ref="B8:B52" si="0">IF(ISBLANK(A8),"",IF(AND($A8&gt;=0,($N8+$O8)&gt;$A8),"&lt;bad offset&gt;",$P8))</f>
+        <v>19006</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">IF(ISBLANK($C8),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C8,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="4">
+        <f ca="1">IF(ISERROR(L8),"",IFERROR(MAX(INDIRECT($K8&amp;"!$D:$D")),""))</f>
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <f ca="1">IFERROR($G8*$E8,"")</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C8&amp;"_v"&amp;$D8)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]JANITZA_B23_part1_v1</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT(K8&amp;"!A1")</f>
+        <v>Name</v>
+      </c>
+      <c r="N8" s="10">
+        <f>IF(ISNUMBER($N7),$P7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <f>IF(ISNUMBER($H7),$H7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <f>IF($A8&gt;=0,$A8,$N8+$O8)</f>
+        <v>19006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="K9" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C9&amp;"_v"&amp;$D9)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L9" t="e" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">INDIRECT(K9&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="10">
+        <f>IF(ISNUMBER($N8),$P8,0)</f>
+        <v>19006</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" ref="O9:O52" ca="1" si="1">IF(ISNUMBER($H8),$H8,0)</f>
+        <v>20</v>
+      </c>
+      <c r="P9" s="10">
+        <f>IF($A9&gt;=0,$A9,$N9+IF(ISNUMBER($H8),$H8,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4" t="str">
+        <f>IF(ISBLANK($C10),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C10,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" ref="G10:G52" ca="1" si="2">IF(ISERROR(L10),"",IFERROR(MAX(INDIRECT($K10&amp;"!$D:$D")),""))</f>
+        <v/>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" ref="H10:H52" ca="1" si="3">IFERROR($G10*$E10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C10&amp;"_v"&amp;$D10)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L10" t="e" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">INDIRECT(K10&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="10">
+        <f>IF(ISNUMBER($N9),$P9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <f>IF($A10&gt;=0,$A10,$N10+IF(ISNUMBER($H9),$H9,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4" t="str">
+        <f>IF(ISBLANK($C11),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C11,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C11&amp;"_v"&amp;$D11)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L11" t="e" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">INDIRECT(K11&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="10">
+        <f>IF(ISNUMBER($N10),$P10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <f>IF($A11&gt;=0,$A11,$N11+IF(ISNUMBER($H10),$H10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4" t="str">
+        <f>IF(ISBLANK($C12),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C12,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C12&amp;"_v"&amp;$D12)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L12" t="e" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">INDIRECT(K12&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="10">
+        <f>IF(ISNUMBER($N11),$P11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <f>IF($A12&gt;=0,$A12,$N12+IF(ISNUMBER($H11),$H11,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4" t="str">
+        <f>IF(ISBLANK($C13),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C13,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C13&amp;"_v"&amp;$D13)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L13" t="e" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">INDIRECT(K13&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" ref="N13:N52" si="4">IF(ISNUMBER($N12),$P12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" ref="P13:P52" si="5">IF($A13&gt;=0,$A13,$N13+IF(ISNUMBER($H12),$H12,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4" t="str">
+        <f>IF(ISBLANK($C14),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C14,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C14&amp;"_v"&amp;$D14)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L14" t="e" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">INDIRECT(K14&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4" t="str">
+        <f>IF(ISBLANK($C15),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C15,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C15&amp;"_v"&amp;$D15)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L15" t="e" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">INDIRECT(K15&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4" t="str">
+        <f>IF(ISBLANK($C16),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C16,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C16&amp;"_v"&amp;$D16)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L16" t="e" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">INDIRECT(K16&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4" t="str">
+        <f>IF(ISBLANK($C17),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C17,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C17&amp;"_v"&amp;$D17)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L17" t="e" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">INDIRECT(K17&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4" t="str">
+        <f>IF(ISBLANK($C18),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C18,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C18&amp;"_v"&amp;$D18)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L18" t="e" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">INDIRECT(K18&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4" t="str">
+        <f>IF(ISBLANK($C19),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C19,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C19&amp;"_v"&amp;$D19)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L19" t="e" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">INDIRECT(K19&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4" t="str">
+        <f>IF(ISBLANK($C20),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C20,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C20&amp;"_v"&amp;$D20)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L20" t="e" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">INDIRECT(K20&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4" t="str">
+        <f>IF(ISBLANK($C21),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C21,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C21&amp;"_v"&amp;$D21)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L21" t="e" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">INDIRECT(K21&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4" t="str">
+        <f>IF(ISBLANK($C22),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C22,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C22&amp;"_v"&amp;$D22)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L22" t="e" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">INDIRECT(K22&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4" t="str">
+        <f>IF(ISBLANK($C23),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C23,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C23&amp;"_v"&amp;$D23)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L23" t="e" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">INDIRECT(K23&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4" t="str">
+        <f>IF(ISBLANK($C24),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C24,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C24&amp;"_v"&amp;$D24)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L24" t="e" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">INDIRECT(K24&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4" t="str">
+        <f>IF(ISBLANK($C25),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C25,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C25&amp;"_v"&amp;$D25)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L25" t="e" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">INDIRECT(K25&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="str">
+        <f>IF(ISBLANK($C26),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C26,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C26&amp;"_v"&amp;$D26)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L26" t="e" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">INDIRECT(K26&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4" t="str">
+        <f>IF(ISBLANK($C27),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C27,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C27&amp;"_v"&amp;$D27)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L27" t="e" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">INDIRECT(K27&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4" t="str">
+        <f>IF(ISBLANK($C28),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C28,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C28&amp;"_v"&amp;$D28)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L28" t="e" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">INDIRECT(K28&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4" t="str">
+        <f>IF(ISBLANK($C29),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C29,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C29&amp;"_v"&amp;$D29)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L29" t="e" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">INDIRECT(K29&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4" t="str">
+        <f>IF(ISBLANK($C30),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C30,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C30&amp;"_v"&amp;$D30)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L30" t="e" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1">INDIRECT(K30&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4" t="str">
+        <f>IF(ISBLANK($C31),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C31,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C31&amp;"_v"&amp;$D31)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L31" t="e" cm="1">
+        <f t="array" aca="1" ref="L31" ca="1">INDIRECT(K31&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4" t="str">
+        <f>IF(ISBLANK($C32),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C32,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C32&amp;"_v"&amp;$D32)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L32" t="e" cm="1">
+        <f t="array" aca="1" ref="L32" ca="1">INDIRECT(K32&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4" t="str">
+        <f>IF(ISBLANK($C33),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C33,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H33" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C33&amp;"_v"&amp;$D33)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L33" t="e" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1">INDIRECT(K33&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4" t="str">
+        <f>IF(ISBLANK($C34),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C34,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C34&amp;"_v"&amp;$D34)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L34" t="e" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1">INDIRECT(K34&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4" t="str">
+        <f>IF(ISBLANK($C35),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C35,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H35" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C35&amp;"_v"&amp;$D35)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L35" t="e" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1">INDIRECT(K35&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="4" t="str">
+        <f>IF(ISBLANK($C36),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C36,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C36&amp;"_v"&amp;$D36)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L36" t="e" cm="1">
+        <f t="array" aca="1" ref="L36" ca="1">INDIRECT(K36&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="4" t="str">
+        <f>IF(ISBLANK($C37),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C37,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H37" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C37&amp;"_v"&amp;$D37)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L37" t="e" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1">INDIRECT(K37&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4" t="str">
+        <f>IF(ISBLANK($C38),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C38,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H38" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C38&amp;"_v"&amp;$D38)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L38" t="e" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1">INDIRECT(K38&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="str">
+        <f>IF(ISBLANK($C39),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C39,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H39" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C39&amp;"_v"&amp;$D39)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L39" t="e" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1">INDIRECT(K39&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4" t="str">
+        <f>IF(ISBLANK($C40),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C40,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H40" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C40&amp;"_v"&amp;$D40)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L40" t="e" cm="1">
+        <f t="array" aca="1" ref="L40" ca="1">INDIRECT(K40&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4" t="str">
+        <f>IF(ISBLANK($C41),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C41,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H41" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C41&amp;"_v"&amp;$D41)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L41" t="e" cm="1">
+        <f t="array" aca="1" ref="L41" ca="1">INDIRECT(K41&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="4" t="str">
+        <f>IF(ISBLANK($C42),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C42,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H42" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C42&amp;"_v"&amp;$D42)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L42" t="e" cm="1">
+        <f t="array" aca="1" ref="L42" ca="1">INDIRECT(K42&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4" t="str">
+        <f>IF(ISBLANK($C43),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C43,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H43" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C43&amp;"_v"&amp;$D43)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L43" t="e" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1">INDIRECT(K43&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4" t="str">
+        <f>IF(ISBLANK($C44),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C44,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H44" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C44&amp;"_v"&amp;$D44)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L44" t="e" cm="1">
+        <f t="array" aca="1" ref="L44" ca="1">INDIRECT(K44&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="4" t="str">
+        <f>IF(ISBLANK($C45),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C45,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H45" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C45&amp;"_v"&amp;$D45)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L45" t="e" cm="1">
+        <f t="array" aca="1" ref="L45" ca="1">INDIRECT(K45&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="4" t="str">
+        <f>IF(ISBLANK($C46),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C46,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H46" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C46&amp;"_v"&amp;$D46)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L46" t="e" cm="1">
+        <f t="array" aca="1" ref="L46" ca="1">INDIRECT(K46&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4" t="str">
+        <f>IF(ISBLANK($C47),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C47,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H47" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C47&amp;"_v"&amp;$D47)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L47" t="e" cm="1">
+        <f t="array" aca="1" ref="L47" ca="1">INDIRECT(K47&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="4" t="str">
+        <f>IF(ISBLANK($C48),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C48,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H48" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C48&amp;"_v"&amp;$D48)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L48" t="e" cm="1">
+        <f t="array" aca="1" ref="L48" ca="1">INDIRECT(K48&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="4" t="str">
+        <f>IF(ISBLANK($C49),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C49,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H49" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C49&amp;"_v"&amp;$D49)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L49" t="e" cm="1">
+        <f t="array" aca="1" ref="L49" ca="1">INDIRECT(K49&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4" t="str">
+        <f>IF(ISBLANK($C50),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C50,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H50" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C50&amp;"_v"&amp;$D50)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L50" t="e" cm="1">
+        <f t="array" aca="1" ref="L50" ca="1">INDIRECT(K50&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="4" t="str">
+        <f>IF(ISBLANK($C51),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C51,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H51" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C51&amp;"_v"&amp;$D51)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L51" t="e" cm="1">
+        <f t="array" aca="1" ref="L51" ca="1">INDIRECT(K51&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="4" t="str">
+        <f>IF(ISBLANK($C52),"",INDEX('$__REMOTE__SectionDef'!$A$2:$A$255,MATCH($C52,'$__REMOTE__SectionDef'!$B$2:$B$255,0)))</f>
+        <v/>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="H52" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f>("["&amp;'$__Config'!$B$3&amp;"]"&amp;$C52&amp;"_v"&amp;$D52)</f>
+        <v>[modbus_defs_dbnpoller.xlsx]_v</v>
+      </c>
+      <c r="L52" t="e" cm="1">
+        <f t="array" aca="1" ref="L52" ca="1">INDIRECT(K52&amp;"!A1")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be within the range 0-255" sqref="C4:C5" xr:uid="{AC1310B2-CFF5-6240-9635-79E81EC429A5}">
+      <formula1>0</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17C301BF-3246-494B-B169-2332428933BC}">
+          <x14:formula1>
+            <xm:f>'$__REMOTE__AccessModes'!$A$3:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I8:I52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2790BE2E-E6C9-4BDB-9FCB-7A5F6D72A757}">
   <dimension ref="A1:B3"/>
@@ -1226,25 +3284,25 @@
       </c>
       <c r="D8" s="4">
         <f ca="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="4">
-        <f ca="1"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f ca="1"/>
+        <v>JANITZA_B23_part1</v>
       </c>
       <c r="C9" s="4">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f ca="1"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5822,8 +7880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD65DB38-0DE0-4474-8E55-3FA6F1EF9497}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14134,8 +16192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417C1077-493D-594E-9CC9-32CEA37ED6DB}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14282,11 +16340,11 @@
       </c>
       <c r="G8" s="4">
         <f ca="1">IF(ISERROR(L8),"",IFERROR(MAX(INDIRECT($K8&amp;"!$D:$D")),""))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4">
         <f ca="1">IFERROR($G8*$E8,"")</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>68</v>
@@ -14338,7 +16396,7 @@
       </c>
       <c r="O9" s="10">
         <f t="shared" ref="O9:O52" ca="1" si="1">IF(ISNUMBER($H8),$H8,0)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="10">
         <f>IF($A9&gt;=0,$A9,$N9+IF(ISNUMBER($H8),$H8,0))</f>
